--- a/Group_3_Group_Minutes_Phase_1.xlsx
+++ b/Group_3_Group_Minutes_Phase_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshchethala/Desktop/University/Spring_25/BAIM_660/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9977BE11-5D0A-3147-B80E-016FAFD8DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22429685-609D-D643-9AF4-ED16E326A428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{A6554809-786C-8140-9CEE-020D2A535626}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A6554809-786C-8140-9CEE-020D2A535626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>60min</t>
-  </si>
-  <si>
     <t>After the data collection and extracting the 10K files, we have decided to only move forward with the last four years of data, as the data was too large. For the initial phase we have decided to try with the FinBERT pretrained model.</t>
   </si>
   <si>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>As the restults from the FiBERT where not optimal ,  we had to find another way to find the seintiment for large documents. After doing some research we found lexicon based methods would be a better option and started working on the lexicon based method.</t>
+  </si>
+  <si>
+    <t>21/4/25</t>
+  </si>
+  <si>
+    <t>Discussed about the progress of where we are and the possiblities of what can be done. As we have automated the download process of the index files alongwith the 10k files, we just have to make the comaprison between the sentiment at different levels using different methods. For now we are planning to use FinBERT and compare it with the LM lexicon method. Then using both models on complete document level, segment level.An additional part could be the summarization and using sentiment models on the summarized text to find the relation in these methods.</t>
   </si>
 </sst>
 </file>
@@ -118,15 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,7 +135,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +475,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,16 +487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -502,46 +504,57 @@
       <c r="A2" s="1">
         <v>45375</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+      <c r="D2" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45381</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+      <c r="D3" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45750</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+      <c r="D4" s="5">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
